--- a/app/data/translation-versions/MCCD-localisation-V02_cy_GB.xlsx
+++ b/app/data/translation-versions/MCCD-localisation-V02_cy_GB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FE0A45-D52B-D543-AAE7-F7DE4D2F0CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E3571-0586-D74B-94C3-273A21A9EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defnyddio'r ddogfen hon" sheetId="8" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1586">
   <si>
     <t>Content type</t>
   </si>
@@ -2106,34 +2106,22 @@
     <t>Describes the content in the summary list row - What was the immediate or main cause of death</t>
   </si>
   <si>
-    <t>Added 1(a) to the start of the Welsh translation</t>
-  </si>
-  <si>
     <t>CYAcodO281bDiseaseLeadingTo1a</t>
   </si>
   <si>
     <t>Describes the content in the summary list row - secondary cause of death that led or contributed to cause 1a</t>
   </si>
   <si>
-    <t>Added 1(b) to the start of the Welsh translation</t>
-  </si>
-  <si>
     <t>CYAcodO281cDiseaseLeadingTo1b</t>
   </si>
   <si>
     <t>Describes the content in the summary list row - tertiary cause of death that led or contributed to 1b</t>
   </si>
   <si>
-    <t>Added 1(c) to the start of the Welsh translation</t>
-  </si>
-  <si>
     <t>CYAcodO281dDiseaseLeadingTo1c</t>
   </si>
   <si>
     <t>Describes the content in the summary list row - subsequent cause that led or contributed to 1c</t>
-  </si>
-  <si>
-    <t>Added 1(d) to the start of the Welsh translation</t>
   </si>
   <si>
     <t>CYAcodO282OtherConditions</t>
@@ -6090,9 +6078,6 @@
     <t>Achos marwolaeth (2)</t>
   </si>
   <si>
-    <t>Cyflyrau arwyddocaol eraill sy'n cyfrannu at y farwolaeth ond &lt;strong&gt;not&lt;/strong&gt; yn ymwneud â'r afiechyd neu'r cyflwr sy'n ei achosi.</t>
-  </si>
-  <si>
     <t>2 Cyflyrau arwyddocaol eraill (dewisol)</t>
   </si>
   <si>
@@ -7236,9 +7221,6 @@
     <t>Cause of death (2)</t>
   </si>
   <si>
-    <t>Other significant conditions contributing to the death but &lt;strong&gt;not&lt;/strong&gt; relating to the disease or condition causing it.</t>
-  </si>
-  <si>
     <t>2 Other significant conditions (optional)</t>
   </si>
   <si>
@@ -7478,6 +7460,33 @@
 Your feedback will be analysed to gain insight into how well our service is performing and identify opportunities for improvement.
 In some instances, if appropriate, you will be contacted with a response.</t>
     </r>
+  </si>
+  <si>
+    <t>Other significant conditions contributing to the death but not relating to the disease or condition causing it.</t>
+  </si>
+  <si>
+    <t>Cyflyrau arwyddocaol eraill sy'n cyfrannu at y farwolaeth ond  yn ymwneud â'r afiechyd neu'r cyflwr sy'n ei achosi.</t>
+  </si>
+  <si>
+    <t>1(a) Clefyd neu gyflwr yn arwain yn uniongyrchol at farwolaeth</t>
+  </si>
+  <si>
+    <t>1(d) Clefyd neu gyflwr arall, os oedd un, yn arwain at 1(c) (dewisol)</t>
+  </si>
+  <si>
+    <t>1(b) Clefyd neu gyflwr arall, os oedd un, yn arwain at 1(a) (dewisol)</t>
+  </si>
+  <si>
+    <t>1(c) Clefyd neu gyflwr arall, os oedd un, yn arwain at 1(b) (dewisol)</t>
+  </si>
+  <si>
+    <t>1(c) Clefyd neu gyflwr arall yn arwain at 1(b) (dewisol)</t>
+  </si>
+  <si>
+    <t>1(d) Clefyd neu gyflwr arall yn arwain at 1(c) (dewisol)</t>
+  </si>
+  <si>
+    <t>1(b) Clefyd neu gyflwr arall yn arwain at 1(a) (dewisol)</t>
   </si>
 </sst>
 </file>
@@ -7714,7 +7723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7784,6 +7793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2BFC3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8169,7 +8184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9056,6 +9071,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9065,8 +9122,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2BFC3"/>
       <color rgb="FFFFE9EA"/>
-      <color rgb="FFF2BFC3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9387,7 +9444,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="300" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B1" s="300"/>
       <c r="C1" s="300"/>
@@ -9936,8 +9993,8 @@
   <dimension ref="A1:F517"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9947,7 +10004,7 @@
     <col min="3" max="3" width="48.1640625" style="215" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33" style="11" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="11" customWidth="1"/>
     <col min="8" max="16384" width="9.1640625" style="11"/>
   </cols>
@@ -9960,13 +10017,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D1" s="235" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="298" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F1" s="69" t="s">
         <v>5</v>
@@ -9980,13 +10037,13 @@
         <v>619</v>
       </c>
       <c r="C2" s="240" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="D2" s="236" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="240" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F2" s="54"/>
     </row>
@@ -9998,13 +10055,13 @@
         <v>620</v>
       </c>
       <c r="C3" s="240" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="D3" s="236" t="s">
         <v>621</v>
       </c>
       <c r="E3" s="240" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F3" s="54"/>
     </row>
@@ -10016,13 +10073,13 @@
         <v>623</v>
       </c>
       <c r="C4" s="240" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="D4" s="236" t="s">
         <v>624</v>
       </c>
       <c r="E4" s="240" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="F4" s="54"/>
     </row>
@@ -10034,13 +10091,13 @@
         <v>625</v>
       </c>
       <c r="C5" s="240" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D5" s="236" t="s">
         <v>626</v>
       </c>
       <c r="E5" s="240" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F5" s="54"/>
     </row>
@@ -10052,13 +10109,13 @@
         <v>627</v>
       </c>
       <c r="C6" s="240" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="D6" s="236" t="s">
         <v>628</v>
       </c>
       <c r="E6" s="240" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="F6" s="54"/>
     </row>
@@ -10070,13 +10127,13 @@
         <v>629</v>
       </c>
       <c r="C7" s="240" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="D7" s="236" t="s">
         <v>630</v>
       </c>
       <c r="E7" s="240" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="F7" s="54"/>
     </row>
@@ -10088,13 +10145,13 @@
         <v>631</v>
       </c>
       <c r="C8" s="240" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="D8" s="236" t="s">
         <v>632</v>
       </c>
       <c r="E8" s="240" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F8" s="54"/>
     </row>
@@ -10106,104 +10163,113 @@
         <v>633</v>
       </c>
       <c r="C9" s="240" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="D9" s="236" t="s">
         <v>634</v>
       </c>
       <c r="E9" s="240" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="217" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B10" s="222" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C10" s="240" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="D10" s="236"/>
       <c r="E10" s="240" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="307" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" s="310" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D11" s="313" t="s">
+        <v>636</v>
+      </c>
+      <c r="E11" s="310" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F11" s="310" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B12" s="307" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="310" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D12" s="313" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" s="310" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F12" s="310" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="307" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="310" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D13" s="313" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" s="310" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F13" s="310" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="307" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="310" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D14" s="313" t="s">
+        <v>642</v>
+      </c>
+      <c r="E14" s="310" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F14" s="310" t="s">
         <v>1364</v>
       </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="217" t="s">
-        <v>622</v>
-      </c>
-      <c r="B11" s="222" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" s="240" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D11" s="236" t="s">
-        <v>636</v>
-      </c>
-      <c r="E11" s="240" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="217" t="s">
-        <v>622</v>
-      </c>
-      <c r="B12" s="222" t="s">
-        <v>637</v>
-      </c>
-      <c r="C12" s="240" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D12" s="236" t="s">
-        <v>638</v>
-      </c>
-      <c r="E12" s="240" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="217" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13" s="222" t="s">
-        <v>639</v>
-      </c>
-      <c r="C13" s="240" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D13" s="236" t="s">
-        <v>640</v>
-      </c>
-      <c r="E13" s="240" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="217" t="s">
-        <v>622</v>
-      </c>
-      <c r="B14" s="222" t="s">
-        <v>641</v>
-      </c>
-      <c r="C14" s="240" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D14" s="236" t="s">
-        <v>642</v>
-      </c>
-      <c r="E14" s="240" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="217" t="s">
         <v>622</v>
       </c>
@@ -10211,13 +10277,13 @@
         <v>643</v>
       </c>
       <c r="C15" s="240" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="D15" s="237" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E15" s="240" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -10228,13 +10294,13 @@
         <v>645</v>
       </c>
       <c r="C16" s="240" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D16" s="236" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="E16" s="240" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10245,28 +10311,28 @@
         <v>646</v>
       </c>
       <c r="C17" s="240" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="D17" s="236" t="s">
         <v>634</v>
       </c>
       <c r="E17" s="240" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="217" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B18" s="222" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C18" s="240" t="s">
-        <v>1542</v>
+        <v>1577</v>
       </c>
       <c r="D18" s="236"/>
       <c r="E18" s="240" t="s">
-        <v>1374</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10277,13 +10343,13 @@
         <v>647</v>
       </c>
       <c r="C19" s="240" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="D19" s="236" t="s">
         <v>648</v>
       </c>
       <c r="E19" s="240" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10303,13 +10369,13 @@
         <v>650</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>651</v>
       </c>
       <c r="E21" s="242" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10320,13 +10386,13 @@
         <v>653</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>654</v>
       </c>
       <c r="E22" s="243" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10346,13 +10412,13 @@
         <v>656</v>
       </c>
       <c r="C24" s="243" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>657</v>
       </c>
       <c r="E24" s="243" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F24" s="54"/>
     </row>
@@ -10364,13 +10430,13 @@
         <v>658</v>
       </c>
       <c r="C25" s="243" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E25" s="243" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F25" s="54"/>
     </row>
@@ -10382,13 +10448,13 @@
         <v>660</v>
       </c>
       <c r="C26" s="243" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E26" s="243" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="F26" s="54"/>
     </row>
@@ -10400,13 +10466,13 @@
         <v>661</v>
       </c>
       <c r="C27" s="245" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E27" s="245" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="F27" s="54"/>
     </row>
@@ -10418,13 +10484,13 @@
         <v>662</v>
       </c>
       <c r="C28" s="245" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E28" s="245" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="F28" s="54"/>
     </row>
@@ -10436,13 +10502,13 @@
         <v>663</v>
       </c>
       <c r="C29" s="245" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E29" s="245" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="F29" s="54"/>
     </row>
@@ -10454,17 +10520,17 @@
         <v>664</v>
       </c>
       <c r="C30" s="245" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>659</v>
       </c>
       <c r="E30" s="245" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F30" s="54"/>
     </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="211" t="s">
         <v>120</v>
       </c>
@@ -10472,17 +10538,17 @@
         <v>665</v>
       </c>
       <c r="C31" s="246" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>666</v>
       </c>
       <c r="E31" s="246" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="F31" s="54"/>
     </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="218" t="s">
         <v>667</v>
       </c>
@@ -10491,7 +10557,7 @@
       <c r="D32" s="209"/>
       <c r="E32" s="241"/>
     </row>
-    <row r="33" spans="1:6" s="213" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="213" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="211" t="s">
         <v>120</v>
       </c>
@@ -10505,13 +10571,13 @@
         <v>669</v>
       </c>
       <c r="E33" s="246" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F33" s="212" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="211" t="s">
         <v>670</v>
       </c>
@@ -10525,7 +10591,7 @@
         <v>672</v>
       </c>
       <c r="E34" s="246" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -10536,16 +10602,16 @@
         <v>673</v>
       </c>
       <c r="C35" s="246" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>591</v>
       </c>
       <c r="E35" s="246" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="s">
         <v>216</v>
       </c>
@@ -10553,19 +10619,19 @@
         <v>674</v>
       </c>
       <c r="C36" s="243" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="D36" s="239" t="s">
         <v>675</v>
       </c>
       <c r="E36" s="243" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="86" t="s">
         <v>216</v>
       </c>
@@ -10573,16 +10639,16 @@
         <v>677</v>
       </c>
       <c r="C37" s="243" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="D37" s="239" t="s">
         <v>678</v>
       </c>
       <c r="E37" s="243" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="86" t="s">
         <v>216</v>
       </c>
@@ -10590,16 +10656,16 @@
         <v>679</v>
       </c>
       <c r="C38" s="243" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="D38" s="239" t="s">
         <v>680</v>
       </c>
       <c r="E38" s="243" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
         <v>216</v>
       </c>
@@ -10607,16 +10673,16 @@
         <v>681</v>
       </c>
       <c r="C39" s="243" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="D39" s="239" t="s">
         <v>682</v>
       </c>
       <c r="E39" s="243" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
         <v>216</v>
       </c>
@@ -10624,161 +10690,162 @@
         <v>683</v>
       </c>
       <c r="C40" s="243" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="D40" s="239" t="s">
         <v>684</v>
       </c>
       <c r="E40" s="243" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="311" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="306" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="307" t="s">
+        <v>685</v>
+      </c>
+      <c r="C41" s="308" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D41" s="309" t="s">
+        <v>686</v>
+      </c>
+      <c r="E41" s="310" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F41" s="308" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="311" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="306" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="307" t="s">
+        <v>687</v>
+      </c>
+      <c r="C42" s="308" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D42" s="309" t="s">
+        <v>688</v>
+      </c>
+      <c r="E42" s="310" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F42" s="308" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="311" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="306" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="307" t="s">
+        <v>689</v>
+      </c>
+      <c r="C43" s="308" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D43" s="309" t="s">
+        <v>690</v>
+      </c>
+      <c r="E43" s="310" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F43" s="308" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="311" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="306" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="307" t="s">
+        <v>691</v>
+      </c>
+      <c r="C44" s="308" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D44" s="309" t="s">
+        <v>692</v>
+      </c>
+      <c r="E44" s="310" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F44" s="308" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="305" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="301" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="302" t="s">
+        <v>693</v>
+      </c>
+      <c r="C45" s="303" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D45" s="304" t="s">
+        <v>694</v>
+      </c>
+      <c r="E45" s="303" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="222" t="s">
-        <v>685</v>
-      </c>
-      <c r="C41" s="243" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D41" s="239" t="s">
-        <v>686</v>
-      </c>
-      <c r="E41" s="243" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="222" t="s">
-        <v>688</v>
-      </c>
-      <c r="C42" s="243" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D42" s="239" t="s">
-        <v>689</v>
-      </c>
-      <c r="E42" s="243" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="222" t="s">
-        <v>691</v>
-      </c>
-      <c r="C43" s="243" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D43" s="239" t="s">
-        <v>692</v>
-      </c>
-      <c r="E43" s="243" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="222" t="s">
-        <v>694</v>
-      </c>
-      <c r="C44" s="243" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D44" s="239" t="s">
-        <v>695</v>
-      </c>
-      <c r="E44" s="243" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="222" t="s">
-        <v>697</v>
-      </c>
-      <c r="C45" s="243" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D45" s="239" t="s">
-        <v>698</v>
-      </c>
-      <c r="E45" s="243" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="303"/>
+    </row>
+    <row r="46" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="222" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C46" s="243" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="D46" s="239" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E46" s="243" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="86" t="s">
         <v>216</v>
       </c>
       <c r="B47" s="231" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C47" s="243" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="D47" s="239" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E47" s="243" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="86" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="222" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C48" s="243" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="D48" s="239" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E48" s="243" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10786,14 +10853,14 @@
         <v>414</v>
       </c>
       <c r="B49" s="232" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C49" s="242" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D49" s="224"/>
       <c r="E49" s="242" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F49" s="54"/>
     </row>
@@ -10802,14 +10869,14 @@
         <v>414</v>
       </c>
       <c r="B50" s="233" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C50" s="247" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="D50" s="224"/>
       <c r="E50" s="247" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="F50" s="54"/>
     </row>
@@ -10818,14 +10885,14 @@
         <v>414</v>
       </c>
       <c r="B51" s="234" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C51" s="248" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="D51" s="224"/>
       <c r="E51" s="248" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F51" s="54"/>
     </row>
@@ -13675,13 +13742,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="298" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F1" s="69" t="s">
         <v>5</v>
@@ -13692,16 +13759,16 @@
         <v>120</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -13710,16 +13777,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>529</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13727,51 +13794,51 @@
         <v>22</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C4" s="81" t="s">
         <v>492</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F6" s="31"/>
     </row>
@@ -13780,16 +13847,16 @@
         <v>126</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>531</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13797,53 +13864,53 @@
         <v>22</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>533</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="81" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>537</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="81" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="252" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="D10" s="188" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E10" s="252" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="250"/>
       <c r="B11" s="251"/>
       <c r="C11" s="253" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="D11" s="188"/>
       <c r="E11" s="253" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -15508,13 +15575,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="298" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F1" s="69" t="s">
         <v>5</v>
@@ -15525,33 +15592,33 @@
         <v>120</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C2" s="257" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E2" s="257" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C3" s="156" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E3" s="155" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15559,16 +15626,16 @@
         <v>428</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>234</v>
       </c>
       <c r="E4" s="156" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15593,31 +15660,31 @@
         <v>120</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E6" s="156" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C7" s="156" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="119"/>
       <c r="E7" s="156" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15625,16 +15692,16 @@
         <v>428</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="156" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>234</v>
       </c>
       <c r="E8" s="156" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15659,31 +15726,31 @@
         <v>120</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E10" s="156" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="156" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15691,16 +15758,16 @@
         <v>428</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>234</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15725,33 +15792,33 @@
         <v>120</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C14" s="260" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E14" s="260" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15759,16 +15826,16 @@
         <v>428</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C16" s="261" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>234</v>
       </c>
       <c r="E16" s="261" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -16910,13 +16977,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="298" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>5</v>
@@ -16924,7 +16991,7 @@
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="263" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B2" s="264"/>
       <c r="C2" s="264"/>
@@ -16938,17 +17005,17 @@
         <v>120</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -16956,17 +17023,17 @@
         <v>130</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="103" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -16974,17 +17041,17 @@
         <v>126</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -16992,17 +17059,17 @@
         <v>130</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -17010,143 +17077,143 @@
         <v>126</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>748</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>749</v>
-      </c>
       <c r="D10" s="74" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="74" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E14" s="74"/>
       <c r="F14" s="74" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -17154,17 +17221,17 @@
         <v>557</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E15" s="74"/>
       <c r="F15" s="74" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -17172,35 +17239,35 @@
         <v>12</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C16" s="265" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D16" s="265" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E16" s="265"/>
       <c r="F16" s="265" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C17" s="265" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D17" s="265" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E17" s="265"/>
       <c r="F17" s="265" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -17208,17 +17275,17 @@
         <v>270</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C18" s="265" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D18" s="265" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E18" s="265"/>
       <c r="F18" s="265" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -17226,22 +17293,22 @@
         <v>270</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C19" s="265" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D19" s="265" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E19" s="265"/>
       <c r="F19" s="265" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="263" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B20" s="264"/>
       <c r="C20" s="264"/>
@@ -17255,16 +17322,16 @@
         <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="113.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17272,19 +17339,19 @@
         <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D22" s="86" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -17292,16 +17359,16 @@
         <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -17309,21 +17376,21 @@
         <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="263" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B25" s="264"/>
       <c r="C25" s="264"/>
@@ -17337,41 +17404,41 @@
         <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="E27" s="86" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="F27" s="86" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="263" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B28" s="264"/>
       <c r="C28" s="264"/>
@@ -17385,41 +17452,41 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="F30" s="86" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="263" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B31" s="264"/>
       <c r="C31" s="264"/>
@@ -17433,41 +17500,41 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="E33" s="86" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="F33" s="86" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="263" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B34" s="264"/>
       <c r="C34" s="264"/>
@@ -17481,41 +17548,41 @@
         <v>120</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="E36" s="86" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="F36" s="86" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="263" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B37" s="264"/>
       <c r="C37" s="264"/>
@@ -17526,24 +17593,24 @@
     </row>
     <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="263" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B39" s="264"/>
       <c r="C39" s="264"/>
@@ -17557,37 +17624,37 @@
         <v>120</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="74" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D41" s="266" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="E41" s="266" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="F41" s="266" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -18811,7 +18878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
@@ -18835,13 +18902,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F1" s="62" t="s">
         <v>5</v>
@@ -18853,13 +18920,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="279" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="282" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F2" s="44"/>
     </row>
@@ -18871,13 +18938,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>11</v>
@@ -18891,13 +18958,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -18909,13 +18976,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>17</v>
@@ -18929,27 +18996,27 @@
         <v>18</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="26" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="81" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -18961,13 +19028,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -18985,7 +19052,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -19003,7 +19070,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -19021,7 +19088,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -19039,7 +19106,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -19051,13 +19118,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -19075,7 +19142,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -19087,13 +19154,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -19105,13 +19172,13 @@
         <v>44</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -19123,13 +19190,13 @@
         <v>46</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F17" s="25"/>
     </row>
@@ -19141,13 +19208,13 @@
         <v>48</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -19165,7 +19232,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -19177,13 +19244,13 @@
         <v>54</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F20" s="25"/>
     </row>
@@ -19195,13 +19262,13 @@
         <v>57</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F21" s="25"/>
     </row>
@@ -19213,13 +19280,13 @@
         <v>59</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -19231,13 +19298,13 @@
         <v>60</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F23" s="25"/>
     </row>
@@ -19249,11 +19316,11 @@
         <v>63</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="81" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>64</v>
@@ -19267,11 +19334,11 @@
         <v>65</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="81" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F25" s="25"/>
     </row>
@@ -19283,11 +19350,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="D26" s="71"/>
       <c r="E26" s="81" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F26" s="25"/>
     </row>
@@ -19299,11 +19366,11 @@
         <v>67</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="81" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F27" s="25"/>
     </row>
@@ -19315,11 +19382,11 @@
         <v>68</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="81" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="F28" s="25"/>
     </row>
@@ -19331,11 +19398,11 @@
         <v>69</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="81" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F29" s="25"/>
     </row>
@@ -19347,11 +19414,11 @@
         <v>70</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="81" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F30" s="25"/>
     </row>
@@ -19363,11 +19430,11 @@
         <v>71</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="81" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F31" s="25"/>
     </row>
@@ -19379,11 +19446,11 @@
         <v>72</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="81" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F32" s="25"/>
     </row>
@@ -19395,11 +19462,11 @@
         <v>73</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="81" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F33" s="25"/>
     </row>
@@ -19411,11 +19478,11 @@
         <v>74</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="81" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -19427,11 +19494,11 @@
         <v>75</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="81" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -19449,7 +19516,7 @@
         <v>80</v>
       </c>
       <c r="E36" s="283" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -19467,7 +19534,7 @@
         <v>83</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F37" s="25"/>
     </row>
@@ -19485,7 +19552,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -19497,13 +19564,13 @@
         <v>88</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="D39" s="71" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="82" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -19515,13 +19582,13 @@
         <v>90</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>92</v>
@@ -19535,13 +19602,13 @@
         <v>93</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="82" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -19553,13 +19620,13 @@
         <v>95</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="D42" s="71" t="s">
         <v>96</v>
       </c>
       <c r="E42" s="82" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>97</v>
@@ -19573,13 +19640,13 @@
         <v>98</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="D43" s="71" t="s">
         <v>99</v>
       </c>
       <c r="E43" s="82" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>100</v>
@@ -19591,11 +19658,11 @@
         <v>101</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="83" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F44" s="38"/>
     </row>
@@ -19605,11 +19672,11 @@
         <v>102</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="83" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F45" s="38"/>
     </row>
@@ -19623,7 +19690,7 @@
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="83" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F46" s="38"/>
     </row>
@@ -19633,25 +19700,25 @@
         <v>105</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="83" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F47" s="38"/>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="75"/>
       <c r="B48" s="79" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="84" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F48" s="38"/>
     </row>
@@ -19661,11 +19728,11 @@
         <v>106</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="83" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F49" s="38"/>
     </row>
@@ -19675,11 +19742,11 @@
         <v>107</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="83" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F50" s="38"/>
     </row>
@@ -19689,11 +19756,11 @@
         <v>108</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="83" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F51" s="38"/>
     </row>
@@ -19703,11 +19770,11 @@
         <v>109</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="83" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F52" s="38"/>
     </row>
@@ -19717,11 +19784,11 @@
         <v>110</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="83" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F53" s="38"/>
     </row>
@@ -19731,11 +19798,11 @@
         <v>111</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="83" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F54" s="38"/>
     </row>
@@ -19745,11 +19812,11 @@
         <v>112</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="83" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F55" s="38"/>
     </row>
@@ -19759,11 +19826,11 @@
         <v>113</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="83" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F56" s="38"/>
     </row>
@@ -19773,11 +19840,11 @@
         <v>114</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="D57" s="38"/>
       <c r="E57" s="83" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F57" s="38"/>
     </row>
@@ -19787,11 +19854,11 @@
         <v>115</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="83" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F58" s="38"/>
     </row>
@@ -19801,11 +19868,11 @@
         <v>116</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="83" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -19814,11 +19881,11 @@
         <v>117</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="83" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -19827,11 +19894,11 @@
         <v>118</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="83" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -19840,100 +19907,100 @@
         <v>119</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="83" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
       <c r="B63" s="79" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C63" s="84" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="D63" s="38"/>
       <c r="E63" s="84" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F63" s="56" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="75"/>
       <c r="B64" s="79" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="84" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="74"/>
       <c r="B65" s="77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C65" s="82" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="74"/>
       <c r="B66" s="77" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C66" s="82" t="s">
         <v>51</v>
       </c>
       <c r="E66" s="82" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="74"/>
       <c r="B67" s="77" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="74"/>
       <c r="B68" s="77" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="74"/>
       <c r="B69" s="77" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="E69" s="82" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.2">
@@ -19942,230 +20009,230 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B71" s="77"/>
       <c r="C71" s="82" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="E71" s="82" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B72" s="77"/>
       <c r="C72" s="82" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B73" s="77"/>
       <c r="C73" s="82" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="E73" s="82" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B74" s="77"/>
       <c r="C74" s="82" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="E74" s="82" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B75" s="77"/>
       <c r="C75" s="82" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="E75" s="82" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B76" s="77"/>
       <c r="C76" s="82" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="74" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B77" s="77"/>
       <c r="C77" s="82" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="E77" s="82" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B78" s="77"/>
       <c r="C78" s="82" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="E78" s="82" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B79" s="77"/>
       <c r="C79" s="82" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="E79" s="82" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B80" s="77"/>
       <c r="C80" s="82" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B81" s="77"/>
       <c r="C81" s="82" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="E81" s="82" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B82" s="77"/>
       <c r="C82" s="82" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="E82" s="82" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B83" s="77"/>
       <c r="C83" s="82" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="E83" s="82" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B84" s="77"/>
       <c r="C84" s="82" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B85" s="77"/>
       <c r="C85" s="82" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="E85" s="82" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B86" s="77"/>
       <c r="C86" s="82" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="E86" s="82" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B87" s="77"/>
       <c r="C87" s="82" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="E87" s="82" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B88" s="77"/>
       <c r="C88" s="82" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="74" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B89" s="77"/>
       <c r="C89" s="85" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E89" s="85" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -20210,7 +20277,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>3</v>
@@ -20239,89 +20306,89 @@
         <v>123</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F3" s="92" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="93" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>1004</v>
-      </c>
       <c r="C6" s="90" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G6" s="35"/>
     </row>
@@ -20340,10 +20407,10 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="81" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>129</v>
@@ -20363,13 +20430,13 @@
         <v>132</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F8" s="81" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>129</v>
@@ -20390,7 +20457,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="81" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -20402,14 +20469,14 @@
         <v>135</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="94" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -20534,13 +20601,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="286" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>5</v>
@@ -20551,17 +20618,17 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="80" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -20570,22 +20637,22 @@
         <v>265</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="81" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -20598,17 +20665,17 @@
         <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="81" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -20616,22 +20683,22 @@
         <v>265</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="81" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -20644,53 +20711,53 @@
         <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="81" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="81" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="81" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -20698,17 +20765,17 @@
         <v>120</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="81" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -20716,17 +20783,17 @@
         <v>265</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="94" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -20857,13 +20924,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="286" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>5</v>
@@ -20871,7 +20938,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B2" s="275"/>
       <c r="C2" s="96"/>
@@ -20881,118 +20948,118 @@
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D3" s="268" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="268" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>926</v>
+      </c>
+      <c r="C5" s="99" t="s">
         <v>924</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>930</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>928</v>
-      </c>
       <c r="D5" s="92" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D8" s="269" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="269" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21000,35 +21067,35 @@
         <v>120</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D9" s="269" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="269" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D10" s="269" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="269" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21036,53 +21103,53 @@
         <v>126</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D11" s="269" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="269" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C12" s="99" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D12" s="269" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="269" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D13" s="269" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="269" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21090,35 +21157,35 @@
         <v>126</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D14" s="269" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="269" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D15" s="269" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="269" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21126,35 +21193,35 @@
         <v>12</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D16" s="269" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="269" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D17" s="269" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="269" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21162,17 +21229,17 @@
         <v>12</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D18" s="269" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="269" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -21180,17 +21247,17 @@
         <v>12</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D19" s="270" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="270" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -21259,13 +21326,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="286" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>5</v>
@@ -21288,7 +21355,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="105" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -21296,7 +21363,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>138</v>
@@ -21306,7 +21373,7 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="82" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -21326,7 +21393,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>141</v>
@@ -21340,22 +21407,22 @@
         <v>142</v>
       </c>
       <c r="C5" s="287" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="128" x14ac:dyDescent="0.2">
@@ -21366,19 +21433,19 @@
         <v>144</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -21389,22 +21456,22 @@
         <v>145</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>146</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -21424,7 +21491,7 @@
         <v>149</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -21444,7 +21511,7 @@
         <v>152</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -21464,7 +21531,7 @@
         <v>156</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -21484,7 +21551,7 @@
         <v>159</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -21504,7 +21571,7 @@
         <v>162</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -21524,7 +21591,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>167</v>
@@ -21547,7 +21614,7 @@
         <v>170</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -21567,7 +21634,7 @@
         <v>173</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -21587,7 +21654,7 @@
         <v>176</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -21607,7 +21674,7 @@
         <v>179</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -21627,7 +21694,7 @@
         <v>182</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -21636,32 +21703,32 @@
         <v>183</v>
       </c>
       <c r="C19" s="288" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D19" s="107" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E19" s="102" t="s">
         <v>184</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C20" s="288" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E20" s="102"/>
       <c r="F20" s="107" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -21679,7 +21746,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>188</v>
@@ -21702,7 +21769,7 @@
         <v>191</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21722,7 +21789,7 @@
         <v>194</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -21742,12 +21809,12 @@
         <v>197</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>198</v>
@@ -21760,7 +21827,7 @@
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="82" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>200</v>
@@ -21768,7 +21835,7 @@
     </row>
     <row r="26" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>198</v>
@@ -21781,7 +21848,7 @@
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="82" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>200</v>
@@ -21789,7 +21856,7 @@
     </row>
     <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>198</v>
@@ -21802,7 +21869,7 @@
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="108" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>203</v>
@@ -21810,25 +21877,25 @@
     </row>
     <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="81" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="1:7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="104" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="289"/>
@@ -21841,17 +21908,17 @@
         <v>126</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="82" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21859,17 +21926,17 @@
         <v>126</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="82" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21877,17 +21944,17 @@
         <v>126</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="82" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21895,16 +21962,16 @@
         <v>557</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21912,33 +21979,33 @@
         <v>12</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="74" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21946,16 +22013,16 @@
         <v>126</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21963,16 +22030,16 @@
         <v>557</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21980,38 +22047,38 @@
         <v>12</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="74" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B40" s="74"/>
       <c r="C40" s="77" t="s">
@@ -22021,163 +22088,163 @@
         <v>155</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B41" s="74"/>
       <c r="C41" s="77" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B42" s="74"/>
       <c r="C42" s="77" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B43" s="74"/>
       <c r="C43" s="77" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F43" s="82" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B44" s="74"/>
       <c r="C44" s="77" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B45" s="74"/>
       <c r="C45" s="77" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F45" s="82" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B46" s="74"/>
       <c r="C46" s="77" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="74"/>
       <c r="B47" s="74" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="74"/>
       <c r="B48" s="74" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F48" s="82" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="74"/>
       <c r="B49" s="74" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F49" s="82" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74"/>
       <c r="B50" s="74" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>
@@ -22193,8 +22260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -22222,13 +22289,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="141" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="290" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>5</v>
@@ -22262,7 +22329,7 @@
         <v>208</v>
       </c>
       <c r="F3" s="149" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="G3" s="50"/>
     </row>
@@ -22283,7 +22350,7 @@
         <v>211</v>
       </c>
       <c r="F4" s="149" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="G4" s="50"/>
     </row>
@@ -22304,7 +22371,7 @@
         <v>215</v>
       </c>
       <c r="F5" s="149" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G5" s="50"/>
     </row>
@@ -22325,7 +22392,7 @@
         <v>219</v>
       </c>
       <c r="F6" s="149" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -22346,7 +22413,7 @@
         <v>222</v>
       </c>
       <c r="F7" s="149" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G7" s="50"/>
     </row>
@@ -22355,17 +22422,17 @@
         <v>216</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D8" s="149" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E8" s="142"/>
       <c r="F8" s="149" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="G8" s="50"/>
     </row>
@@ -22386,7 +22453,7 @@
         <v>225</v>
       </c>
       <c r="F9" s="149" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G9" s="50"/>
     </row>
@@ -22405,7 +22472,7 @@
       </c>
       <c r="E10" s="142"/>
       <c r="F10" s="149" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="G10" s="50"/>
     </row>
@@ -22437,7 +22504,7 @@
         <v>230</v>
       </c>
       <c r="F12" s="149" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G12" s="50"/>
     </row>
@@ -22449,16 +22516,16 @@
         <v>231</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E13" s="143" t="s">
         <v>232</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -22470,16 +22537,16 @@
         <v>233</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E14" s="143" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -22511,7 +22578,7 @@
         <v>238</v>
       </c>
       <c r="F16" s="149" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G16" s="50"/>
     </row>
@@ -22532,7 +22599,7 @@
         <v>244</v>
       </c>
       <c r="F17" s="149" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G17" s="50"/>
     </row>
@@ -22553,13 +22620,13 @@
         <v>248</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B19" s="114"/>
       <c r="C19" s="114"/>
@@ -22573,10 +22640,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D20" s="107"/>
       <c r="E20" s="144"/>
@@ -22588,19 +22655,19 @@
         <v>212</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E21" s="145" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="G21" s="50"/>
     </row>
@@ -22609,40 +22676,40 @@
         <v>212</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D22" s="107" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E22" s="144" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" s="58" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="118" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C23" s="132" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D23" s="151" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E23" s="146" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F23" s="151" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="G23" s="57"/>
     </row>
@@ -22674,7 +22741,7 @@
         <v>252</v>
       </c>
       <c r="F25" s="153" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G25" s="50"/>
     </row>
@@ -22695,7 +22762,7 @@
         <v>255</v>
       </c>
       <c r="F26" s="153" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G26" s="50"/>
     </row>
@@ -22716,7 +22783,7 @@
         <v>258</v>
       </c>
       <c r="F27" s="153" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="G27" s="50"/>
     </row>
@@ -22737,7 +22804,7 @@
         <v>260</v>
       </c>
       <c r="F28" s="153" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G28" s="50"/>
     </row>
@@ -22769,7 +22836,7 @@
         <v>264</v>
       </c>
       <c r="F30" s="153" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G30" s="50"/>
     </row>
@@ -22778,17 +22845,17 @@
         <v>265</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="93" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G31" s="50"/>
     </row>
@@ -22800,16 +22867,16 @@
         <v>266</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D32" s="153" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F32" s="153" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G32" s="50"/>
     </row>
@@ -22828,7 +22895,7 @@
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="93" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G33" s="50"/>
     </row>
@@ -22847,7 +22914,7 @@
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="93" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G34" s="50"/>
     </row>
@@ -22866,7 +22933,7 @@
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="93" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G35" s="50"/>
     </row>
@@ -22885,7 +22952,7 @@
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="93" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G36" s="50"/>
     </row>
@@ -22904,7 +22971,7 @@
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="93" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G37" s="50"/>
     </row>
@@ -22936,7 +23003,7 @@
         <v>278</v>
       </c>
       <c r="F39" s="153" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G39" s="50"/>
     </row>
@@ -22948,16 +23015,16 @@
         <v>280</v>
       </c>
       <c r="C40" s="133" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D40" s="153" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>281</v>
       </c>
       <c r="F40" s="153" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G40" s="50"/>
     </row>
@@ -22978,7 +23045,7 @@
         <v>285</v>
       </c>
       <c r="F41" s="153" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G41" s="50"/>
     </row>
@@ -22987,17 +23054,17 @@
         <v>282</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C42" s="133" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D42" s="153" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="153" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G42" s="50"/>
     </row>
@@ -23029,7 +23096,7 @@
         <v>289</v>
       </c>
       <c r="F44" s="153" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G44" s="50"/>
     </row>
@@ -23061,7 +23128,7 @@
         <v>293</v>
       </c>
       <c r="F46" s="153" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="G46" s="50"/>
     </row>
@@ -23070,17 +23137,17 @@
         <v>265</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C47" s="134" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D47" s="153" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="153" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G47" s="50"/>
     </row>
@@ -23101,7 +23168,7 @@
         <v>234</v>
       </c>
       <c r="F48" s="154" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G48" s="50"/>
     </row>
@@ -23122,7 +23189,7 @@
         <v>234</v>
       </c>
       <c r="F49" s="155" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G49" s="50"/>
     </row>
@@ -23143,7 +23210,7 @@
         <v>234</v>
       </c>
       <c r="F50" s="155" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G50" s="50"/>
     </row>
@@ -23164,7 +23231,7 @@
         <v>234</v>
       </c>
       <c r="F51" s="155" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G51" s="50"/>
     </row>
@@ -23185,7 +23252,7 @@
         <v>234</v>
       </c>
       <c r="F52" s="155" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G52" s="50"/>
     </row>
@@ -23206,7 +23273,7 @@
         <v>234</v>
       </c>
       <c r="F53" s="155" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G53" s="50"/>
     </row>
@@ -23218,16 +23285,16 @@
         <v>307</v>
       </c>
       <c r="C54" s="135" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D54" s="156" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>234</v>
       </c>
       <c r="F54" s="156" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="G54" s="50"/>
     </row>
@@ -23259,7 +23326,7 @@
         <v>311</v>
       </c>
       <c r="F56" s="153" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G56" s="50" t="s">
         <v>313</v>
@@ -23273,14 +23340,14 @@
         <v>312</v>
       </c>
       <c r="C57" s="133" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D57" s="153" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="153" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G57" s="50"/>
     </row>
@@ -23299,7 +23366,7 @@
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="157" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G58" s="50"/>
     </row>
@@ -23318,7 +23385,7 @@
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="158" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="G59" s="50"/>
     </row>
@@ -23337,7 +23404,7 @@
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="159" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G60" s="50"/>
     </row>
@@ -23356,7 +23423,7 @@
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="153" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="G61" s="50"/>
     </row>
@@ -23375,7 +23442,7 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="153" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="G62" s="50"/>
     </row>
@@ -23394,7 +23461,7 @@
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="153" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G63" s="50"/>
     </row>
@@ -23406,14 +23473,14 @@
         <v>325</v>
       </c>
       <c r="C64" s="133" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D64" s="153" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="153" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G64" s="50"/>
     </row>
@@ -23445,7 +23512,7 @@
         <v>329</v>
       </c>
       <c r="F66" s="153" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>313</v>
@@ -23459,14 +23526,14 @@
         <v>330</v>
       </c>
       <c r="C67" s="133" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D67" s="153" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E67" s="52"/>
       <c r="F67" s="153" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>333</v>
@@ -23489,7 +23556,7 @@
         <v>234</v>
       </c>
       <c r="F68" s="154" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G68" s="38"/>
     </row>
@@ -23498,7 +23565,7 @@
         <v>56</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>332</v>
@@ -23510,7 +23577,7 @@
         <v>234</v>
       </c>
       <c r="F69" s="154" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -23519,7 +23586,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>332</v>
@@ -23531,7 +23598,7 @@
         <v>234</v>
       </c>
       <c r="F70" s="154" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -23540,7 +23607,7 @@
         <v>56</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C71" s="139" t="s">
         <v>332</v>
@@ -23550,7 +23617,7 @@
       </c>
       <c r="E71" s="121"/>
       <c r="F71" s="93" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -23559,7 +23626,7 @@
         <v>56</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C72" s="139" t="s">
         <v>332</v>
@@ -23569,7 +23636,7 @@
       </c>
       <c r="E72" s="121"/>
       <c r="F72" s="93" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -23578,7 +23645,7 @@
         <v>56</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C73" s="139" t="s">
         <v>332</v>
@@ -23588,7 +23655,7 @@
       </c>
       <c r="E73" s="121"/>
       <c r="F73" s="93" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G73" s="50"/>
     </row>
@@ -23609,7 +23676,7 @@
         <v>336</v>
       </c>
       <c r="F74" s="153" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="G74" s="50"/>
     </row>
@@ -23630,7 +23697,7 @@
         <v>339</v>
       </c>
       <c r="F75" s="153" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="G75" s="50"/>
     </row>
@@ -23651,7 +23718,7 @@
         <v>342</v>
       </c>
       <c r="F76" s="160" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="G76" s="50"/>
     </row>
@@ -23672,7 +23739,7 @@
         <v>345</v>
       </c>
       <c r="F77" s="153" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G77" s="50"/>
     </row>
@@ -23702,7 +23769,7 @@
         <v>348</v>
       </c>
       <c r="F79" s="153" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G79" s="50"/>
     </row>
@@ -23723,7 +23790,7 @@
         <v>351</v>
       </c>
       <c r="F80" s="153" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G80" s="50"/>
     </row>
@@ -23744,7 +23811,7 @@
         <v>354</v>
       </c>
       <c r="F81" s="153" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="G81" s="50"/>
     </row>
@@ -23765,7 +23832,7 @@
         <v>357</v>
       </c>
       <c r="F82" s="153" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="G82" s="50"/>
     </row>
@@ -23795,7 +23862,7 @@
         <v>360</v>
       </c>
       <c r="F84" s="153" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="G84" s="50"/>
     </row>
@@ -23816,7 +23883,7 @@
         <v>363</v>
       </c>
       <c r="F85" s="153" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G85" s="50"/>
     </row>
@@ -23837,7 +23904,7 @@
         <v>366</v>
       </c>
       <c r="F86" s="153" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="G86" s="50"/>
     </row>
@@ -23858,7 +23925,7 @@
         <v>369</v>
       </c>
       <c r="F87" s="153" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="G87" s="50"/>
     </row>
@@ -23879,7 +23946,7 @@
         <v>372</v>
       </c>
       <c r="F88" s="153" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -23905,7 +23972,7 @@
         <v>375</v>
       </c>
       <c r="F90" s="153" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G90" s="50"/>
     </row>
@@ -23926,7 +23993,7 @@
         <v>378</v>
       </c>
       <c r="F91" s="153" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G91" s="50"/>
     </row>
@@ -23947,7 +24014,7 @@
         <v>381</v>
       </c>
       <c r="F92" s="153" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G92" s="50"/>
     </row>
@@ -23977,7 +24044,7 @@
         <v>384</v>
       </c>
       <c r="F94" s="153" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="G94" s="50"/>
     </row>
@@ -23998,7 +24065,7 @@
         <v>387</v>
       </c>
       <c r="F95" s="153" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G95" s="50"/>
     </row>
@@ -24030,45 +24097,45 @@
         <v>391</v>
       </c>
       <c r="F97" s="153" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="49" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C98" s="133" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D98" s="153" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E98" s="52"/>
       <c r="F98" s="153" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="G98" s="50"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="49" t="s">
+        <v>828</v>
+      </c>
+      <c r="B99" s="49" t="s">
         <v>832</v>
       </c>
-      <c r="B99" s="49" t="s">
-        <v>836</v>
-      </c>
       <c r="C99" s="133" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D99" s="153" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E99" s="52"/>
       <c r="F99" s="153" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="G99" s="50"/>
     </row>
@@ -24083,13 +24150,13 @@
         <v>393</v>
       </c>
       <c r="D100" s="153" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="E100" s="52" t="s">
         <v>394</v>
       </c>
       <c r="F100" s="153" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G100" s="50"/>
     </row>
@@ -24117,7 +24184,7 @@
       </c>
       <c r="E102" s="52"/>
       <c r="F102" s="93" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G102" s="50"/>
     </row>
@@ -24136,7 +24203,7 @@
       </c>
       <c r="E103" s="52"/>
       <c r="F103" s="93" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G103" s="50"/>
     </row>
@@ -24155,7 +24222,7 @@
       </c>
       <c r="E104" s="52"/>
       <c r="F104" s="93" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G104" s="50"/>
     </row>
@@ -24196,7 +24263,7 @@
         <v>401</v>
       </c>
       <c r="F107" s="153" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="G107" s="50"/>
     </row>
@@ -24208,16 +24275,16 @@
         <v>402</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D108" s="93" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E108" s="52" t="s">
         <v>403</v>
       </c>
       <c r="F108" s="93" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="G108" s="51" t="s">
         <v>405</v>
@@ -24233,7 +24300,7 @@
       <c r="C109" s="133"/>
       <c r="D109" s="153"/>
       <c r="E109" s="121" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F109" s="153"/>
       <c r="G109" s="51"/>
@@ -24248,7 +24315,7 @@
       <c r="C110" s="133"/>
       <c r="D110" s="153"/>
       <c r="E110" s="121" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F110" s="153"/>
       <c r="G110" s="50" t="s">
@@ -24274,16 +24341,16 @@
         <v>409</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D112" s="93" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="E112" s="52" t="s">
         <v>410</v>
       </c>
       <c r="F112" s="93" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G112" s="50"/>
     </row>
@@ -24302,7 +24369,7 @@
       </c>
       <c r="E113" s="52"/>
       <c r="F113" s="93" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="G113" s="50"/>
     </row>
@@ -24311,17 +24378,17 @@
         <v>26</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D114" s="93" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E114" s="52"/>
       <c r="F114" s="93" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G114" s="50"/>
     </row>
@@ -24330,17 +24397,17 @@
         <v>26</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D115" s="93" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E115" s="52"/>
       <c r="F115" s="93" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="G115" s="50"/>
     </row>
@@ -24359,7 +24426,7 @@
       </c>
       <c r="E116" s="52"/>
       <c r="F116" s="153" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G116" s="50"/>
     </row>
@@ -24378,7 +24445,7 @@
       </c>
       <c r="E117" s="52"/>
       <c r="F117" s="153" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G117" s="50"/>
     </row>
@@ -24410,7 +24477,7 @@
         <v>421</v>
       </c>
       <c r="F119" s="157" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="G119" s="50"/>
     </row>
@@ -24431,7 +24498,7 @@
         <v>424</v>
       </c>
       <c r="F120" s="153" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G120" s="50"/>
     </row>
@@ -24452,7 +24519,7 @@
         <v>427</v>
       </c>
       <c r="F121" s="153" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="G121" s="50"/>
     </row>
@@ -24471,7 +24538,7 @@
       </c>
       <c r="E122" s="52"/>
       <c r="F122" s="159" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G122" s="50"/>
     </row>
@@ -24490,7 +24557,7 @@
       </c>
       <c r="E123" s="52"/>
       <c r="F123" s="153" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G123" s="50"/>
     </row>
@@ -24522,7 +24589,7 @@
       </c>
       <c r="E125" s="144"/>
       <c r="F125" s="149" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G125" s="53" t="s">
         <v>434</v>
@@ -24533,17 +24600,17 @@
         <v>120</v>
       </c>
       <c r="B126" s="112" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C126" s="131" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D126" s="149" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E126" s="144"/>
       <c r="F126" s="149" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="G126" s="53" t="s">
         <v>434</v>
@@ -24564,7 +24631,7 @@
       </c>
       <c r="E127" s="144"/>
       <c r="F127" s="149" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G127" s="53" t="s">
         <v>434</v>
@@ -24600,7 +24667,7 @@
       </c>
       <c r="E129" s="144"/>
       <c r="F129" s="149" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="G129" s="53" t="s">
         <v>434</v>
@@ -24621,7 +24688,7 @@
       </c>
       <c r="E130" s="144"/>
       <c r="F130" s="149" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G130" s="53" t="s">
         <v>434</v>
@@ -24642,7 +24709,7 @@
       </c>
       <c r="E131" s="144"/>
       <c r="F131" s="149" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G131" s="53" t="s">
         <v>434</v>
@@ -24650,7 +24717,7 @@
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="113" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B132" s="114"/>
       <c r="C132" s="114"/>
@@ -24664,10 +24731,10 @@
         <v>120</v>
       </c>
       <c r="B133" s="112" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C133" s="131" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D133" s="149"/>
       <c r="E133" s="144"/>
@@ -24676,13 +24743,13 @@
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="74" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B134" s="74" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C134" s="77" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D134" s="82"/>
       <c r="E134" s="145"/>
@@ -24693,19 +24760,19 @@
         <v>130</v>
       </c>
       <c r="B135" s="74" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C135" s="77" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D135" s="82" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="E135" s="145" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="F135" s="82" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24736,7 +24803,7 @@
         <v>444</v>
       </c>
       <c r="F137" s="154" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="G137" s="50"/>
     </row>
@@ -24757,7 +24824,7 @@
         <v>234</v>
       </c>
       <c r="F138" s="155" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G138" s="50"/>
     </row>
@@ -24769,16 +24836,16 @@
         <v>446</v>
       </c>
       <c r="C139" s="135" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D139" s="156" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E139" s="43" t="s">
         <v>234</v>
       </c>
       <c r="F139" s="156" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G139" s="50"/>
     </row>
@@ -24790,16 +24857,16 @@
         <v>447</v>
       </c>
       <c r="C140" s="135" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D140" s="156" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>234</v>
       </c>
       <c r="F140" s="156" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G140" s="50"/>
     </row>
@@ -24811,16 +24878,16 @@
         <v>448</v>
       </c>
       <c r="C141" s="135" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D141" s="156" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>234</v>
       </c>
       <c r="F141" s="156" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G141" s="50"/>
     </row>
@@ -24841,7 +24908,7 @@
         <v>234</v>
       </c>
       <c r="F142" s="155" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G142" s="50"/>
     </row>
@@ -24862,28 +24929,28 @@
         <v>234</v>
       </c>
       <c r="F143" s="155" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G143" s="50"/>
     </row>
     <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="59" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B144" s="119" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C144" s="135" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D144" s="156" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="E144" s="119" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F144" s="156" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G144" s="50"/>
     </row>
@@ -24915,7 +24982,7 @@
         <v>444</v>
       </c>
       <c r="F146" s="153" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="G146" s="50"/>
     </row>
@@ -24947,7 +25014,7 @@
         <v>458</v>
       </c>
       <c r="F148" s="153" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G148" s="50"/>
     </row>
@@ -24956,17 +25023,17 @@
         <v>265</v>
       </c>
       <c r="B149" s="49" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C149" s="133" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D149" s="153" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E149" s="52"/>
       <c r="F149" s="153" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="G149" s="50"/>
     </row>
@@ -24987,7 +25054,7 @@
         <v>461</v>
       </c>
       <c r="F150" s="153" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="G150" s="50"/>
     </row>
@@ -24999,16 +25066,16 @@
         <v>462</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D151" s="93" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E151" s="52" t="s">
         <v>463</v>
       </c>
       <c r="F151" s="93" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G151" s="50"/>
     </row>
@@ -25017,17 +25084,17 @@
         <v>265</v>
       </c>
       <c r="B152" s="49" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D152" s="93" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E152" s="52"/>
       <c r="F152" s="93" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="G152" s="50"/>
     </row>
@@ -25059,7 +25126,7 @@
         <v>467</v>
       </c>
       <c r="F154" s="153" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="G154" s="50"/>
     </row>
@@ -25078,7 +25145,7 @@
       </c>
       <c r="E155" s="52"/>
       <c r="F155" s="153" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G155" s="50"/>
     </row>
@@ -25097,7 +25164,7 @@
       </c>
       <c r="E156" s="52"/>
       <c r="F156" s="153" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G156" s="50"/>
     </row>
@@ -25109,14 +25176,14 @@
         <v>469</v>
       </c>
       <c r="C157" s="133" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D157" s="153" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E157" s="52"/>
       <c r="F157" s="153" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="G157" s="50"/>
     </row>
@@ -25125,7 +25192,7 @@
         <v>416</v>
       </c>
       <c r="B158" s="49" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C158" s="133" t="s">
         <v>31</v>
@@ -25135,7 +25202,7 @@
       </c>
       <c r="E158" s="52"/>
       <c r="F158" s="153" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G158" s="50"/>
     </row>
@@ -25144,7 +25211,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="49" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C159" s="133" t="s">
         <v>451</v>
@@ -25154,7 +25221,7 @@
       </c>
       <c r="E159" s="52"/>
       <c r="F159" s="153" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G159" s="50"/>
     </row>
@@ -25186,7 +25253,7 @@
         <v>473</v>
       </c>
       <c r="F161" s="153" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="G161" s="50"/>
     </row>
@@ -25207,7 +25274,7 @@
         <v>475</v>
       </c>
       <c r="F162" s="153" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G162" s="50"/>
     </row>
@@ -25228,7 +25295,7 @@
         <v>477</v>
       </c>
       <c r="F163" s="153" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="G163" s="50"/>
     </row>
@@ -25260,7 +25327,7 @@
         <v>481</v>
       </c>
       <c r="F165" s="153" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="G165" s="50"/>
     </row>
@@ -25279,7 +25346,7 @@
       </c>
       <c r="E166" s="52"/>
       <c r="F166" s="153" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G166" s="50"/>
     </row>
@@ -25291,14 +25358,14 @@
         <v>483</v>
       </c>
       <c r="C167" s="133" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D167" s="153" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E167" s="52"/>
       <c r="F167" s="153" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G167" s="50"/>
     </row>
@@ -25310,14 +25377,14 @@
         <v>484</v>
       </c>
       <c r="C168" s="133" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D168" s="153" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E168" s="52"/>
       <c r="F168" s="153" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G168" s="50"/>
     </row>
@@ -25329,14 +25396,14 @@
         <v>485</v>
       </c>
       <c r="C169" s="133" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D169" s="153" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E169" s="52"/>
       <c r="F169" s="153" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G169" s="50"/>
     </row>
@@ -25355,7 +25422,7 @@
       </c>
       <c r="E170" s="52"/>
       <c r="F170" s="153" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G170" s="50"/>
     </row>
@@ -25387,7 +25454,7 @@
         <v>490</v>
       </c>
       <c r="F172" s="153" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="G172" s="50"/>
     </row>
@@ -25408,7 +25475,7 @@
         <v>493</v>
       </c>
       <c r="F173" s="153" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="G173" s="50"/>
     </row>
@@ -25420,16 +25487,16 @@
         <v>494</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D174" s="93" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E174" s="52" t="s">
         <v>495</v>
       </c>
       <c r="F174" s="93" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="G174" s="50"/>
     </row>
@@ -25450,7 +25517,7 @@
         <v>498</v>
       </c>
       <c r="F175" s="153" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="G175" s="50"/>
     </row>
@@ -25471,7 +25538,7 @@
         <v>500</v>
       </c>
       <c r="F176" s="153" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G176" s="50"/>
     </row>
@@ -25492,7 +25559,7 @@
         <v>503</v>
       </c>
       <c r="F177" s="153" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="G177" s="50"/>
     </row>
@@ -25513,7 +25580,7 @@
         <v>506</v>
       </c>
       <c r="F178" s="153" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G178" s="50"/>
     </row>
@@ -25534,7 +25601,7 @@
         <v>509</v>
       </c>
       <c r="F179" s="153" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="G179" s="50"/>
     </row>
@@ -25555,7 +25622,7 @@
         <v>509</v>
       </c>
       <c r="F180" s="153" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="G180" s="50"/>
     </row>
@@ -25576,7 +25643,7 @@
         <v>514</v>
       </c>
       <c r="F181" s="153" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="G181" s="50"/>
     </row>
@@ -25597,7 +25664,7 @@
         <v>516</v>
       </c>
       <c r="F182" s="153" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="G182" s="50"/>
     </row>
@@ -25618,7 +25685,7 @@
         <v>519</v>
       </c>
       <c r="F183" s="157" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="G183" s="50"/>
     </row>
@@ -25639,7 +25706,7 @@
         <v>522</v>
       </c>
       <c r="F184" s="149" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="G184" s="31" t="s">
         <v>524</v>
@@ -25656,7 +25723,7 @@
       </c>
       <c r="E185" s="145"/>
       <c r="F185" s="85" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -25873,13 +25940,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="277" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="297" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>5</v>
@@ -25910,7 +25977,7 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="193" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -25928,7 +25995,7 @@
       </c>
       <c r="E4" s="175"/>
       <c r="F4" s="193" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -25946,7 +26013,7 @@
       </c>
       <c r="E5" s="175"/>
       <c r="F5" s="193" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -25964,7 +26031,7 @@
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="193" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -25982,22 +26049,22 @@
       </c>
       <c r="E7" s="175"/>
       <c r="F7" s="193" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="175" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C8" s="181" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D8" s="193" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E8" s="175"/>
       <c r="F8" s="193" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26017,7 +26084,7 @@
         <v>234</v>
       </c>
       <c r="F9" s="154" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26035,7 +26102,7 @@
       </c>
       <c r="E10" s="188"/>
       <c r="F10" s="194" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26053,7 +26120,7 @@
       </c>
       <c r="E11" s="175"/>
       <c r="F11" s="193" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26071,7 +26138,7 @@
       </c>
       <c r="E12" s="175"/>
       <c r="F12" s="193" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26101,7 +26168,7 @@
         <v>544</v>
       </c>
       <c r="F14" s="193" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26121,7 +26188,7 @@
         <v>547</v>
       </c>
       <c r="F15" s="193" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26141,7 +26208,7 @@
         <v>547</v>
       </c>
       <c r="F16" s="193" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26161,7 +26228,7 @@
         <v>547</v>
       </c>
       <c r="F17" s="193" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -26172,16 +26239,16 @@
         <v>552</v>
       </c>
       <c r="C18" s="183" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D18" s="196" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>547</v>
       </c>
       <c r="F18" s="196" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26209,7 +26276,7 @@
       </c>
       <c r="E20" s="189"/>
       <c r="F20" s="81" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26227,7 +26294,7 @@
       </c>
       <c r="E21" s="189"/>
       <c r="F21" s="198" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -26238,14 +26305,14 @@
         <v>561</v>
       </c>
       <c r="C22" s="184" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D22" s="198" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E22" s="189"/>
       <c r="F22" s="198" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26273,7 +26340,7 @@
       </c>
       <c r="E24" s="188"/>
       <c r="F24" s="194" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26301,7 +26368,7 @@
       </c>
       <c r="E26" s="188"/>
       <c r="F26" s="194" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26331,10 +26398,10 @@
         <v>571</v>
       </c>
       <c r="F28" s="154" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26354,7 +26421,7 @@
         <v>574</v>
       </c>
       <c r="F29" s="155" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="335" x14ac:dyDescent="0.2">
@@ -26368,13 +26435,13 @@
         <v>577</v>
       </c>
       <c r="D30" s="201" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F30" s="201" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -26385,14 +26452,14 @@
         <v>578</v>
       </c>
       <c r="C31" s="180" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D31" s="193" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E31" s="175"/>
       <c r="F31" s="193" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26400,17 +26467,17 @@
         <v>130</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C32" s="180" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D32" s="193" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E32" s="175"/>
       <c r="F32" s="193" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26427,10 +26494,10 @@
         <v>580</v>
       </c>
       <c r="E33" s="190" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F33" s="193" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26460,7 +26527,7 @@
         <v>584</v>
       </c>
       <c r="F35" s="193" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26490,10 +26557,10 @@
         <v>587</v>
       </c>
       <c r="F37" s="193" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -26513,7 +26580,7 @@
         <v>589</v>
       </c>
       <c r="F38" s="193" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26524,16 +26591,16 @@
         <v>590</v>
       </c>
       <c r="C39" s="185" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D39" s="203" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>591</v>
       </c>
       <c r="F39" s="203" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26573,7 +26640,7 @@
         <v>597</v>
       </c>
       <c r="F41" s="193" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26593,7 +26660,7 @@
         <v>600</v>
       </c>
       <c r="F42" s="193" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26613,7 +26680,7 @@
         <v>603</v>
       </c>
       <c r="F43" s="193" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26633,7 +26700,7 @@
         <v>234</v>
       </c>
       <c r="F44" s="154" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26651,7 +26718,7 @@
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="193" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -26671,7 +26738,7 @@
         <v>610</v>
       </c>
       <c r="F46" s="193" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>524</v>
@@ -26694,7 +26761,7 @@
         <v>610</v>
       </c>
       <c r="F47" s="204" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>524</v>
@@ -26717,7 +26784,7 @@
         <v>615</v>
       </c>
       <c r="F48" s="205" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>524</v>
@@ -26740,7 +26807,7 @@
         <v>618</v>
       </c>
       <c r="F49" s="206" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>524</v>

--- a/app/data/translation-versions/MCCD-localisation-V02_cy_GB.xlsx
+++ b/app/data/translation-versions/MCCD-localisation-V02_cy_GB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E3571-0586-D74B-94C3-273A21A9EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19464E8-0EBE-4546-B81B-7E5902674402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defnyddio'r ddogfen hon" sheetId="8" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1599">
   <si>
     <t>Content type</t>
   </si>
@@ -7488,12 +7488,51 @@
   <si>
     <t>1(b) Clefyd neu gyflwr arall yn arwain at 1(a) (dewisol)</t>
   </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>globalRoleAttendingPractitioner</t>
+  </si>
+  <si>
+    <t>Attending practitioner</t>
+  </si>
+  <si>
+    <t>globalRoleMedicalExaminer</t>
+  </si>
+  <si>
+    <t>Medical examiner</t>
+  </si>
+  <si>
+    <t>globalRoleMedicalExaminerOfficer</t>
+  </si>
+  <si>
+    <t>Medical examiner officer</t>
+  </si>
+  <si>
+    <t>Ymarferydd sy'n mynychu</t>
+  </si>
+  <si>
+    <t>Archwiliwr meddygol</t>
+  </si>
+  <si>
+    <t>Swyddog archwilio meddygol</t>
+  </si>
+  <si>
+    <t>Mae'r rhif GIG hwn wedi cael ei ddefnyddio eisoes i greu Tystysgrif Feddygol o achos marwolaeth (MCCD)</t>
+  </si>
+  <si>
+    <t>Heb ganfod cyfeiriad</t>
+  </si>
+  <si>
+    <t>Chwilio eto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7721,6 +7760,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="14">
@@ -8184,7 +8228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9069,50 +9113,38 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9443,538 +9475,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="309" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="300"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
+      <c r="A2" s="309"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="300"/>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
+      <c r="A3" s="309"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="300"/>
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
-      <c r="J4" s="300"/>
-      <c r="K4" s="300"/>
-      <c r="L4" s="300"/>
+      <c r="A4" s="309"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="300"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
+      <c r="A5" s="309"/>
+      <c r="B5" s="309"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="300"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="309"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="309"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="300"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
-      <c r="L7" s="300"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="300"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="300"/>
-      <c r="L8" s="300"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="300"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="300"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="300"/>
-      <c r="L9" s="300"/>
+      <c r="A9" s="309"/>
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="309"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="309"/>
+      <c r="L9" s="309"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="300"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="300"/>
-      <c r="H10" s="300"/>
-      <c r="I10" s="300"/>
-      <c r="J10" s="300"/>
-      <c r="K10" s="300"/>
-      <c r="L10" s="300"/>
+      <c r="A10" s="309"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="309"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="309"/>
+      <c r="L10" s="309"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="300"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="300"/>
-      <c r="H11" s="300"/>
-      <c r="I11" s="300"/>
-      <c r="J11" s="300"/>
-      <c r="K11" s="300"/>
-      <c r="L11" s="300"/>
+      <c r="A11" s="309"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="309"/>
+      <c r="L11" s="309"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="300"/>
-      <c r="B12" s="300"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="300"/>
-      <c r="J12" s="300"/>
-      <c r="K12" s="300"/>
-      <c r="L12" s="300"/>
+      <c r="A12" s="309"/>
+      <c r="B12" s="309"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="309"/>
+      <c r="L12" s="309"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="300"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="309"/>
+      <c r="L13" s="309"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="300"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="300"/>
-      <c r="K14" s="300"/>
-      <c r="L14" s="300"/>
+      <c r="A14" s="309"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="309"/>
+      <c r="L14" s="309"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="300"/>
-      <c r="B15" s="300"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
+      <c r="A15" s="309"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="309"/>
+      <c r="L15" s="309"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="300"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="300"/>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
+      <c r="A16" s="309"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="309"/>
+      <c r="L16" s="309"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="300"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
-      <c r="I17" s="300"/>
-      <c r="J17" s="300"/>
-      <c r="K17" s="300"/>
-      <c r="L17" s="300"/>
+      <c r="A17" s="309"/>
+      <c r="B17" s="309"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="309"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="300"/>
-      <c r="B18" s="300"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="300"/>
-      <c r="K18" s="300"/>
-      <c r="L18" s="300"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="309"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="300"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
+      <c r="A19" s="309"/>
+      <c r="B19" s="309"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="309"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="300"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="300"/>
-      <c r="H20" s="300"/>
-      <c r="I20" s="300"/>
-      <c r="J20" s="300"/>
-      <c r="K20" s="300"/>
-      <c r="L20" s="300"/>
+      <c r="A20" s="309"/>
+      <c r="B20" s="309"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="309"/>
+      <c r="L20" s="309"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="300"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="300"/>
-      <c r="J21" s="300"/>
-      <c r="K21" s="300"/>
-      <c r="L21" s="300"/>
+      <c r="A21" s="309"/>
+      <c r="B21" s="309"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="300"/>
-      <c r="B22" s="300"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="300"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="300"/>
-      <c r="L22" s="300"/>
+      <c r="A22" s="309"/>
+      <c r="B22" s="309"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="309"/>
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="309"/>
+      <c r="H22" s="309"/>
+      <c r="I22" s="309"/>
+      <c r="J22" s="309"/>
+      <c r="K22" s="309"/>
+      <c r="L22" s="309"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="300"/>
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="300"/>
-      <c r="I23" s="300"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="300"/>
-      <c r="L23" s="300"/>
+      <c r="A23" s="309"/>
+      <c r="B23" s="309"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="309"/>
+      <c r="J23" s="309"/>
+      <c r="K23" s="309"/>
+      <c r="L23" s="309"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="300"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="300"/>
-      <c r="H24" s="300"/>
-      <c r="I24" s="300"/>
-      <c r="J24" s="300"/>
-      <c r="K24" s="300"/>
-      <c r="L24" s="300"/>
+      <c r="A24" s="309"/>
+      <c r="B24" s="309"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="309"/>
+      <c r="I24" s="309"/>
+      <c r="J24" s="309"/>
+      <c r="K24" s="309"/>
+      <c r="L24" s="309"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="300"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
-      <c r="G25" s="300"/>
-      <c r="H25" s="300"/>
-      <c r="I25" s="300"/>
-      <c r="J25" s="300"/>
-      <c r="K25" s="300"/>
-      <c r="L25" s="300"/>
+      <c r="A25" s="309"/>
+      <c r="B25" s="309"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="309"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="309"/>
+      <c r="J25" s="309"/>
+      <c r="K25" s="309"/>
+      <c r="L25" s="309"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="300"/>
-      <c r="B26" s="300"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="300"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="300"/>
-      <c r="H26" s="300"/>
-      <c r="I26" s="300"/>
-      <c r="J26" s="300"/>
-      <c r="K26" s="300"/>
-      <c r="L26" s="300"/>
+      <c r="A26" s="309"/>
+      <c r="B26" s="309"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
+      <c r="E26" s="309"/>
+      <c r="F26" s="309"/>
+      <c r="G26" s="309"/>
+      <c r="H26" s="309"/>
+      <c r="I26" s="309"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="309"/>
+      <c r="L26" s="309"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="300"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="300"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="300"/>
-      <c r="H27" s="300"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="300"/>
-      <c r="K27" s="300"/>
-      <c r="L27" s="300"/>
+      <c r="A27" s="309"/>
+      <c r="B27" s="309"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="309"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="309"/>
+      <c r="L27" s="309"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="300"/>
-      <c r="B28" s="300"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="300"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="300"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="300"/>
-      <c r="J28" s="300"/>
-      <c r="K28" s="300"/>
-      <c r="L28" s="300"/>
+      <c r="A28" s="309"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="309"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="309"/>
+      <c r="L28" s="309"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="300"/>
-      <c r="B29" s="300"/>
-      <c r="C29" s="300"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="300"/>
-      <c r="H29" s="300"/>
-      <c r="I29" s="300"/>
-      <c r="J29" s="300"/>
-      <c r="K29" s="300"/>
-      <c r="L29" s="300"/>
+      <c r="A29" s="309"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="309"/>
+      <c r="L29" s="309"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="300"/>
-      <c r="B30" s="300"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="300"/>
-      <c r="E30" s="300"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="300"/>
-      <c r="H30" s="300"/>
-      <c r="I30" s="300"/>
-      <c r="J30" s="300"/>
-      <c r="K30" s="300"/>
-      <c r="L30" s="300"/>
+      <c r="A30" s="309"/>
+      <c r="B30" s="309"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="309"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="309"/>
+      <c r="J30" s="309"/>
+      <c r="K30" s="309"/>
+      <c r="L30" s="309"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="300"/>
-      <c r="B31" s="300"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="300"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="300"/>
-      <c r="H31" s="300"/>
-      <c r="I31" s="300"/>
-      <c r="J31" s="300"/>
-      <c r="K31" s="300"/>
-      <c r="L31" s="300"/>
+      <c r="A31" s="309"/>
+      <c r="B31" s="309"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="309"/>
+      <c r="K31" s="309"/>
+      <c r="L31" s="309"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="300"/>
-      <c r="B32" s="300"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="300"/>
-      <c r="E32" s="300"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="300"/>
-      <c r="H32" s="300"/>
-      <c r="I32" s="300"/>
-      <c r="J32" s="300"/>
-      <c r="K32" s="300"/>
-      <c r="L32" s="300"/>
+      <c r="A32" s="309"/>
+      <c r="B32" s="309"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="309"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="309"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="309"/>
+      <c r="K32" s="309"/>
+      <c r="L32" s="309"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="300"/>
-      <c r="B33" s="300"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="300"/>
-      <c r="E33" s="300"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="300"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="300"/>
-      <c r="K33" s="300"/>
-      <c r="L33" s="300"/>
+      <c r="A33" s="309"/>
+      <c r="B33" s="309"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="309"/>
+      <c r="L33" s="309"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="300"/>
-      <c r="B34" s="300"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="300"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="300"/>
-      <c r="I34" s="300"/>
-      <c r="J34" s="300"/>
-      <c r="K34" s="300"/>
-      <c r="L34" s="300"/>
+      <c r="A34" s="309"/>
+      <c r="B34" s="309"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
+      <c r="H34" s="309"/>
+      <c r="I34" s="309"/>
+      <c r="J34" s="309"/>
+      <c r="K34" s="309"/>
+      <c r="L34" s="309"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="300"/>
-      <c r="B35" s="300"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="300"/>
-      <c r="E35" s="300"/>
-      <c r="F35" s="300"/>
-      <c r="G35" s="300"/>
-      <c r="H35" s="300"/>
-      <c r="I35" s="300"/>
-      <c r="J35" s="300"/>
-      <c r="K35" s="300"/>
-      <c r="L35" s="300"/>
+      <c r="A35" s="309"/>
+      <c r="B35" s="309"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="309"/>
+      <c r="J35" s="309"/>
+      <c r="K35" s="309"/>
+      <c r="L35" s="309"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="300"/>
-      <c r="B36" s="300"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="300"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="300"/>
-      <c r="G36" s="300"/>
-      <c r="H36" s="300"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="300"/>
-      <c r="K36" s="300"/>
-      <c r="L36" s="300"/>
+      <c r="A36" s="309"/>
+      <c r="B36" s="309"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="309"/>
+      <c r="E36" s="309"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="309"/>
+      <c r="H36" s="309"/>
+      <c r="I36" s="309"/>
+      <c r="J36" s="309"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="309"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="300"/>
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="300"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300"/>
-      <c r="G37" s="300"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="300"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="300"/>
-      <c r="L37" s="300"/>
+      <c r="A37" s="309"/>
+      <c r="B37" s="309"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="309"/>
+      <c r="E37" s="309"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="309"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="309"/>
+      <c r="K37" s="309"/>
+      <c r="L37" s="309"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="300"/>
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="300"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
-      <c r="G38" s="300"/>
-      <c r="H38" s="300"/>
-      <c r="I38" s="300"/>
-      <c r="J38" s="300"/>
-      <c r="K38" s="300"/>
-      <c r="L38" s="300"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="309"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="309"/>
+      <c r="E38" s="309"/>
+      <c r="F38" s="309"/>
+      <c r="G38" s="309"/>
+      <c r="H38" s="309"/>
+      <c r="I38" s="309"/>
+      <c r="J38" s="309"/>
+      <c r="K38" s="309"/>
+      <c r="L38" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10189,83 +10221,83 @@
       </c>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="312" t="s">
+    <row r="11" spans="1:6" s="308" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="306" t="s">
         <v>622</v>
       </c>
-      <c r="B11" s="307" t="s">
+      <c r="B11" s="301" t="s">
         <v>635</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="304" t="s">
         <v>1530</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="307" t="s">
         <v>636</v>
       </c>
-      <c r="E11" s="310" t="s">
+      <c r="E11" s="304" t="s">
         <v>1579</v>
       </c>
-      <c r="F11" s="310" t="s">
+      <c r="F11" s="304" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="312" t="s">
+    <row r="12" spans="1:6" s="308" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="306" t="s">
         <v>622</v>
       </c>
-      <c r="B12" s="307" t="s">
+      <c r="B12" s="301" t="s">
         <v>637</v>
       </c>
-      <c r="C12" s="310" t="s">
+      <c r="C12" s="304" t="s">
         <v>1531</v>
       </c>
-      <c r="D12" s="313" t="s">
+      <c r="D12" s="307" t="s">
         <v>638</v>
       </c>
-      <c r="E12" s="310" t="s">
+      <c r="E12" s="304" t="s">
         <v>1585</v>
       </c>
-      <c r="F12" s="310" t="s">
+      <c r="F12" s="304" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="312" t="s">
+    <row r="13" spans="1:6" s="308" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="306" t="s">
         <v>622</v>
       </c>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="301" t="s">
         <v>639</v>
       </c>
-      <c r="C13" s="310" t="s">
+      <c r="C13" s="304" t="s">
         <v>1532</v>
       </c>
-      <c r="D13" s="313" t="s">
+      <c r="D13" s="307" t="s">
         <v>640</v>
       </c>
-      <c r="E13" s="310" t="s">
+      <c r="E13" s="304" t="s">
         <v>1583</v>
       </c>
-      <c r="F13" s="310" t="s">
+      <c r="F13" s="304" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="314" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="312" t="s">
+    <row r="14" spans="1:6" s="308" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="306" t="s">
         <v>622</v>
       </c>
-      <c r="B14" s="307" t="s">
+      <c r="B14" s="301" t="s">
         <v>641</v>
       </c>
-      <c r="C14" s="310" t="s">
+      <c r="C14" s="304" t="s">
         <v>1533</v>
       </c>
-      <c r="D14" s="313" t="s">
+      <c r="D14" s="307" t="s">
         <v>642</v>
       </c>
-      <c r="E14" s="310" t="s">
+      <c r="E14" s="304" t="s">
         <v>1584</v>
       </c>
-      <c r="F14" s="310" t="s">
+      <c r="F14" s="304" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -10699,103 +10731,103 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="311" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="306" t="s">
+    <row r="41" spans="1:6" s="305" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="307" t="s">
+      <c r="B41" s="301" t="s">
         <v>685</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="302" t="s">
         <v>1552</v>
       </c>
-      <c r="D41" s="309" t="s">
+      <c r="D41" s="303" t="s">
         <v>686</v>
       </c>
-      <c r="E41" s="310" t="s">
+      <c r="E41" s="304" t="s">
         <v>1579</v>
       </c>
-      <c r="F41" s="308" t="s">
+      <c r="F41" s="302" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="311" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="306" t="s">
+    <row r="42" spans="1:6" s="305" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="307" t="s">
+      <c r="B42" s="301" t="s">
         <v>687</v>
       </c>
-      <c r="C42" s="308" t="s">
+      <c r="C42" s="302" t="s">
         <v>1553</v>
       </c>
-      <c r="D42" s="309" t="s">
+      <c r="D42" s="303" t="s">
         <v>688</v>
       </c>
-      <c r="E42" s="310" t="s">
+      <c r="E42" s="304" t="s">
         <v>1581</v>
       </c>
-      <c r="F42" s="308" t="s">
+      <c r="F42" s="302" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="311" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="306" t="s">
+    <row r="43" spans="1:6" s="305" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="307" t="s">
+      <c r="B43" s="301" t="s">
         <v>689</v>
       </c>
-      <c r="C43" s="308" t="s">
+      <c r="C43" s="302" t="s">
         <v>1554</v>
       </c>
-      <c r="D43" s="309" t="s">
+      <c r="D43" s="303" t="s">
         <v>690</v>
       </c>
-      <c r="E43" s="310" t="s">
+      <c r="E43" s="304" t="s">
         <v>1582</v>
       </c>
-      <c r="F43" s="308" t="s">
+      <c r="F43" s="302" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="311" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="306" t="s">
+    <row r="44" spans="1:6" s="305" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="307" t="s">
+      <c r="B44" s="301" t="s">
         <v>691</v>
       </c>
-      <c r="C44" s="308" t="s">
+      <c r="C44" s="302" t="s">
         <v>1555</v>
       </c>
-      <c r="D44" s="309" t="s">
+      <c r="D44" s="303" t="s">
         <v>692</v>
       </c>
-      <c r="E44" s="310" t="s">
+      <c r="E44" s="304" t="s">
         <v>1580</v>
       </c>
-      <c r="F44" s="308" t="s">
+      <c r="F44" s="302" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="305" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="301" t="s">
+    <row r="45" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="302" t="s">
+      <c r="B45" s="222" t="s">
         <v>693</v>
       </c>
-      <c r="C45" s="303" t="s">
+      <c r="C45" s="243" t="s">
         <v>1556</v>
       </c>
-      <c r="D45" s="304" t="s">
+      <c r="D45" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="E45" s="303" t="s">
+      <c r="E45" s="243" t="s">
         <v>1391</v>
       </c>
-      <c r="F45" s="303"/>
+      <c r="F45" s="243"/>
     </row>
     <row r="46" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
@@ -18876,11 +18908,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20233,6 +20265,48 @@
       </c>
       <c r="E89" s="85" t="s">
         <v>1099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E90" s="310" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E91" s="310" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E92" s="310" t="s">
+        <v>1595</v>
       </c>
     </row>
   </sheetData>
@@ -22260,9 +22334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22647,7 +22721,9 @@
       </c>
       <c r="D20" s="107"/>
       <c r="E20" s="144"/>
-      <c r="F20" s="107"/>
+      <c r="F20" s="107" t="s">
+        <v>1596</v>
+      </c>
       <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -24738,7 +24814,9 @@
       </c>
       <c r="D133" s="149"/>
       <c r="E133" s="144"/>
-      <c r="F133" s="149"/>
+      <c r="F133" s="149" t="s">
+        <v>1597</v>
+      </c>
       <c r="G133" s="50"/>
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -24753,7 +24831,9 @@
       </c>
       <c r="D134" s="82"/>
       <c r="E134" s="145"/>
-      <c r="F134" s="82"/>
+      <c r="F134" s="82" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="74" t="s">
